--- a/실습 데이터/HRData.xlsx
+++ b/실습 데이터/HRData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A2DF17-806D-4B69-8C45-BCCC6F24C580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BE660D-031B-4AE3-8D7F-CCDDA513A59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="3" xr2:uid="{0C3E815D-72CF-4715-B86F-DE0E6F6A8888}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="CodeBook" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CodeBook!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HRData!$A$1:$T$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">org!$A$1:$AJ$312</definedName>
   </definedNames>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9208" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9213" uniqueCount="1329">
   <si>
     <t>Employee_Name</t>
   </si>
@@ -6528,9 +6529,6 @@
     <t>노스다코타(North Dakota)</t>
   </si>
   <si>
-    <t>버몬트(Vermont)</t>
-  </si>
-  <si>
     <t>노스캐롤라이나(North Carolina)</t>
   </si>
   <si>
@@ -6589,6 +6587,40 @@
   </si>
   <si>
     <t>네바다(Nevada)</t>
+  </si>
+  <si>
+    <t>VT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버몬트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Vermont)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘리포니아(California)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6599,7 +6631,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -6759,6 +6791,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -7208,7 +7247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7253,6 +7292,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -61180,10 +61222,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6630FAC7-3D64-4FDE-9AC2-B5E32DA49738}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -61421,14 +61463,14 @@
       <c r="A14" s="7" t="s">
         <v>1215</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>1300</v>
+      <c r="B14" t="s">
+        <v>1327</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>136</v>
+        <v>1328</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>136</v>
+        <v>1328</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>1143</v>
@@ -61439,13 +61481,13 @@
         <v>1215</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>1143</v>
@@ -61456,13 +61498,13 @@
         <v>1215</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>648</v>
+        <v>195</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>648</v>
+        <v>195</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>1143</v>
@@ -61473,13 +61515,13 @@
         <v>1215</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>794</v>
+        <v>648</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>794</v>
+        <v>648</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>1143</v>
@@ -61489,14 +61531,14 @@
       <c r="A18" s="7" t="s">
         <v>1215</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1021</v>
+      <c r="B18" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>794</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>1143</v>
@@ -61507,13 +61549,13 @@
         <v>1215</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>265</v>
+        <v>1021</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>265</v>
+        <v>1021</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>1143</v>
@@ -61523,14 +61565,14 @@
       <c r="A20" s="7" t="s">
         <v>1215</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>1306</v>
+      <c r="B20" s="15" t="s">
+        <v>1326</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>801</v>
+        <v>1325</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>801</v>
+        <v>1325</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>1143</v>
@@ -61541,13 +61583,13 @@
         <v>1215</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>1143</v>
@@ -61558,13 +61600,13 @@
         <v>1215</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>682</v>
+        <v>781</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>682</v>
+        <v>781</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>1143</v>
@@ -61575,13 +61617,13 @@
         <v>1215</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>541</v>
+        <v>682</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>541</v>
+        <v>682</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>1143</v>
@@ -61592,13 +61634,13 @@
         <v>1215</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>847</v>
+        <v>541</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>847</v>
+        <v>541</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>1143</v>
@@ -61609,13 +61651,13 @@
         <v>1215</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>1143</v>
@@ -61626,13 +61668,13 @@
         <v>1215</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>491</v>
+        <v>869</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>491</v>
+        <v>869</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>1143</v>
@@ -61643,13 +61685,13 @@
         <v>1215</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1007</v>
+        <v>491</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1007</v>
+        <v>491</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>1143</v>
@@ -61660,13 +61702,13 @@
         <v>1215</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>567</v>
+        <v>1007</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>567</v>
+        <v>1007</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>1143</v>
@@ -61677,13 +61719,13 @@
         <v>1215</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>234</v>
+        <v>567</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>234</v>
+        <v>567</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>1143</v>
@@ -61694,13 +61736,13 @@
         <v>1215</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1039</v>
+        <v>234</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1039</v>
+        <v>234</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>1143</v>
@@ -61711,13 +61753,13 @@
         <v>1215</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>629</v>
+        <v>1039</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>629</v>
+        <v>1039</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>1143</v>
@@ -61728,13 +61770,13 @@
         <v>1215</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>985</v>
+        <v>629</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>985</v>
+        <v>629</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>1143</v>
@@ -61745,13 +61787,13 @@
         <v>1215</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>621</v>
+        <v>985</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>621</v>
+        <v>985</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>1143</v>
@@ -61762,13 +61804,13 @@
         <v>1215</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1047</v>
+        <v>621</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1047</v>
+        <v>621</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>1143</v>
@@ -61779,13 +61821,13 @@
         <v>1215</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>503</v>
+        <v>1047</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>503</v>
+        <v>1047</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>1143</v>
@@ -61796,13 +61838,13 @@
         <v>1215</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>576</v>
+        <v>503</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>576</v>
+        <v>503</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>1143</v>
@@ -61813,13 +61855,13 @@
         <v>1215</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>382</v>
+        <v>576</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>382</v>
+        <v>576</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>1143</v>
@@ -61830,13 +61872,13 @@
         <v>1215</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>1143</v>
@@ -61847,13 +61889,13 @@
         <v>1215</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>978</v>
+        <v>363</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>978</v>
+        <v>363</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>1143</v>
@@ -61861,16 +61903,16 @@
     </row>
     <row r="40" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>1241</v>
+        <v>1215</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>978</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>1143</v>
@@ -61881,13 +61923,13 @@
         <v>1111</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>1242</v>
+        <v>219</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>1241</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>1143</v>
@@ -61898,13 +61940,13 @@
         <v>1111</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>233</v>
+        <v>579</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>1233</v>
+        <v>1242</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1233</v>
+        <v>1242</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>1143</v>
@@ -61915,13 +61957,13 @@
         <v>1111</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>374</v>
+        <v>233</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>1257</v>
+        <v>1233</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1257</v>
+        <v>1233</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>1143</v>
@@ -61932,13 +61974,13 @@
         <v>1111</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>272</v>
+        <v>374</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>1143</v>
@@ -61949,13 +61991,13 @@
         <v>1111</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1099</v>
+        <v>272</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>1236</v>
+        <v>1251</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>1236</v>
+        <v>1251</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>1143</v>
@@ -61966,13 +62008,13 @@
         <v>1111</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>900</v>
+        <v>1099</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>1143</v>
@@ -61983,13 +62025,13 @@
         <v>1111</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>165</v>
+        <v>900</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>1143</v>
@@ -62000,13 +62042,13 @@
         <v>1111</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>1237</v>
+        <v>1252</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>1237</v>
+        <v>1252</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>1143</v>
@@ -62017,13 +62059,13 @@
         <v>1111</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>323</v>
+        <v>135</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>1143</v>
@@ -62034,13 +62076,13 @@
         <v>1111</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>575</v>
+        <v>323</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>1259</v>
+        <v>1239</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>1259</v>
+        <v>1239</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>1143</v>
@@ -62051,13 +62093,13 @@
         <v>1111</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>1238</v>
+        <v>1259</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>1238</v>
+        <v>1259</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>1143</v>
@@ -62068,13 +62110,13 @@
         <v>1111</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1216</v>
+        <v>463</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>1143</v>
@@ -62085,13 +62127,13 @@
         <v>1111</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>115</v>
+        <v>1216</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>1143</v>
@@ -62102,13 +62144,13 @@
         <v>1111</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>446</v>
+        <v>115</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>1143</v>
@@ -62119,13 +62161,13 @@
         <v>1111</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>632</v>
+        <v>446</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>1143</v>
@@ -62136,13 +62178,13 @@
         <v>1111</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>208</v>
+        <v>632</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>1143</v>
@@ -62156,10 +62198,10 @@
         <v>208</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>1230</v>
+        <v>1254</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>1230</v>
+        <v>1254</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>1143</v>
@@ -62170,13 +62212,13 @@
         <v>1111</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>1143</v>
@@ -62187,13 +62229,13 @@
         <v>1111</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>1143</v>
@@ -62204,13 +62246,13 @@
         <v>1111</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>339</v>
+        <v>67</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>1143</v>
@@ -62221,13 +62263,13 @@
         <v>1111</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>669</v>
+        <v>339</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>1143</v>
@@ -62238,13 +62280,13 @@
         <v>1111</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>1143</v>
@@ -62255,13 +62297,13 @@
         <v>1111</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>94</v>
+        <v>676</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>1232</v>
+        <v>1253</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>1232</v>
+        <v>1253</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>1143</v>
@@ -62272,13 +62314,13 @@
         <v>1111</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>248</v>
+        <v>94</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>1256</v>
+        <v>1232</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1256</v>
+        <v>1232</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>1143</v>
@@ -62289,13 +62331,13 @@
         <v>1111</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>1245</v>
+        <v>1256</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1245</v>
+        <v>1256</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>1143</v>
@@ -62306,13 +62348,13 @@
         <v>1111</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>1143</v>
@@ -62323,13 +62365,13 @@
         <v>1111</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>336</v>
+        <v>54</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>1143</v>
@@ -62340,13 +62382,13 @@
         <v>1111</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>895</v>
+        <v>336</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>1143</v>
@@ -62357,13 +62399,13 @@
         <v>1111</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>194</v>
+        <v>895</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>1143</v>
@@ -62371,16 +62413,16 @@
     </row>
     <row r="70" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>1143</v>
@@ -62391,13 +62433,13 @@
         <v>1109</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>634</v>
+        <v>205</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>1143</v>
@@ -62408,13 +62450,13 @@
         <v>1109</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>61</v>
+        <v>634</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>1143</v>
@@ -62425,13 +62467,13 @@
         <v>1109</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>1143</v>
@@ -62442,13 +62484,13 @@
         <v>1109</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>1143</v>
@@ -62459,13 +62501,13 @@
         <v>1109</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>1143</v>
@@ -62473,16 +62515,16 @@
     </row>
     <row r="76" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="7" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>1281</v>
+        <v>1262</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1281</v>
+        <v>1262</v>
       </c>
       <c r="E76" s="7" t="s">
         <v>1143</v>
@@ -62493,13 +62535,13 @@
         <v>1108</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>1266</v>
+        <v>1281</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1266</v>
+        <v>1281</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>1143</v>
@@ -62510,13 +62552,13 @@
         <v>1108</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>1143</v>
@@ -62527,13 +62569,13 @@
         <v>1108</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>250</v>
+        <v>62</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>1143</v>
@@ -62544,13 +62586,13 @@
         <v>1108</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>1143</v>
@@ -62561,13 +62603,13 @@
         <v>1108</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>118</v>
+        <v>298</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>1283</v>
+        <v>1272</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1283</v>
+        <v>1272</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>1143</v>
@@ -62578,13 +62620,13 @@
         <v>1108</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>469</v>
+        <v>118</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>1143</v>
@@ -62595,13 +62637,13 @@
         <v>1108</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>98</v>
+        <v>469</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>1270</v>
+        <v>1285</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1270</v>
+        <v>1285</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>1143</v>
@@ -62612,13 +62654,13 @@
         <v>1108</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>1143</v>
@@ -62629,13 +62671,13 @@
         <v>1108</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>1143</v>
@@ -62646,13 +62688,13 @@
         <v>1108</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>377</v>
+        <v>111</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1284</v>
+        <v>1268</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>1284</v>
+        <v>1268</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>1143</v>
@@ -62663,13 +62705,13 @@
         <v>1108</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>126</v>
+        <v>377</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>1143</v>
@@ -62680,13 +62722,13 @@
         <v>1108</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>342</v>
+        <v>126</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>1143</v>
@@ -62697,13 +62739,13 @@
         <v>1108</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1279</v>
+        <v>1286</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1279</v>
+        <v>1286</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>1143</v>
@@ -62714,13 +62756,13 @@
         <v>1108</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>1143</v>
@@ -62731,13 +62773,13 @@
         <v>1108</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>1143</v>
@@ -62748,13 +62790,13 @@
         <v>1108</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>1143</v>
@@ -62765,13 +62807,13 @@
         <v>1108</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>1143</v>
@@ -62782,13 +62824,13 @@
         <v>1108</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>1143</v>
@@ -62799,13 +62841,13 @@
         <v>1108</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>49</v>
+        <v>283</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>1143</v>
@@ -62819,10 +62861,10 @@
         <v>49</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>1143</v>
@@ -62833,13 +62875,13 @@
         <v>1108</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>1269</v>
+        <v>1287</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>1269</v>
+        <v>1287</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>1143</v>
@@ -62847,16 +62889,16 @@
     </row>
     <row r="98" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="7" t="s">
-        <v>1134</v>
+        <v>1108</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1155</v>
+        <v>85</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>1297</v>
+        <v>1269</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>1297</v>
+        <v>1269</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>1143</v>
@@ -62867,13 +62909,13 @@
         <v>1134</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1290</v>
+        <v>1297</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>1290</v>
+        <v>1297</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>1143</v>
@@ -62884,13 +62926,13 @@
         <v>1134</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>1143</v>
@@ -62901,13 +62943,13 @@
         <v>1134</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>1143</v>
@@ -62915,16 +62957,16 @@
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="7" t="s">
-        <v>1112</v>
+        <v>1134</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>1143</v>
@@ -62935,13 +62977,13 @@
         <v>1112</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>1293</v>
+        <v>1298</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>1293</v>
+        <v>1298</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>1143</v>
@@ -62952,13 +62994,13 @@
         <v>1112</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>1143</v>
@@ -62966,16 +63008,16 @@
     </row>
     <row r="105" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="7" t="s">
-        <v>1212</v>
+        <v>1112</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>187</v>
+        <v>1161</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>1114</v>
+        <v>1294</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1114</v>
+        <v>1294</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>1143</v>
@@ -62986,13 +63028,13 @@
         <v>1212</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>1143</v>
@@ -63003,13 +63045,13 @@
         <v>1212</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>1143</v>
@@ -63020,13 +63062,13 @@
         <v>1212</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>1143</v>
@@ -63037,13 +63079,13 @@
         <v>1212</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>1143</v>
@@ -63054,13 +63096,13 @@
         <v>1212</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>1143</v>
@@ -63071,13 +63113,13 @@
         <v>1212</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>1143</v>
@@ -63088,13 +63130,13 @@
         <v>1212</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>470</v>
+        <v>147</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>1143</v>
@@ -63105,19 +63147,37 @@
         <v>1212</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>384</v>
+        <v>470</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>1143</v>
       </c>
     </row>
+    <row r="114" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>1143</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{6630FAC7-3D64-4FDE-9AC2-B5E32DA49738}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
